--- a/biology/Médecine/Classe_ATC_J07/Classe_ATC_J07.xlsx
+++ b/biology/Médecine/Classe_ATC_J07/Classe_ATC_J07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC J07, dénommée « Vaccins », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique J de la classification, intitulé « Anti-infectieux (usage systémique) ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC J07, dénommée « Vaccins », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique J de la classification, intitulé « Anti-infectieux (usage systémique) ».
 Dans la classification ATC vétérinaire, ces produits sont répertoriés au sein du groupe ATCvet QI (produits immunologiques).
-J07 Vaccins[2].
+J07 Vaccins.
 </t>
         </is>
       </c>
@@ -515,26 +527,201 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>J07AC Vaccins contre le charbon
-Article détaillé en anglais à en:Anthrax vaccines (en)
-J07AC01 Antigène du charbon (en)
-J07AD Vaccins antibrucelliques
-Article détaillé en anglais à en:Brucellosis vaccine (en)
-J07AD01 Antigène brucellique
-J07AE Vaccins anticholériques
-Article détaillé en anglais à en:Cholera vaccine (en)
+          <t>J07AC Vaccins contre le charbon</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Article détaillé en anglais à en:Anthrax vaccines (en)
+J07AC01 Antigène du charbon (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>J07A Vaccins bactériens</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>J07AD Vaccins antibrucelliques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Article détaillé en anglais à en:Brucellosis vaccine (en)
+J07AD01 Antigène brucellique</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>J07A Vaccins bactériens</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>J07AE Vaccins anticholériques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Article détaillé en anglais à en:Cholera vaccine (en)
 J07AE01 Vibrion cholérique inactivé entier
 J07AE02 Vibrion cholérique vivant atténué
-J07AE51 Vibrion cholérique inactivé associé au vaccin contre la typhoïde
-J07AF Vaccins antidiphtériques
-J07AF01 Anatoxine diphtérique
-J07AG Vaccins anti-Hæmophilus influenzæ B
-J07AG01 Hæmophilus influenzæ B, antigène purifié conjugué
+J07AE51 Vibrion cholérique inactivé associé au vaccin contre la typhoïde</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>J07A Vaccins bactériens</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>J07AF Vaccins antidiphtériques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>J07AF01 Anatoxine diphtérique</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>J07A Vaccins bactériens</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>J07AG Vaccins anti-Hæmophilus influenzæ B</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>J07AG01 Hæmophilus influenzæ B, antigène purifié conjugué
 J07AG51 Hæmophilus influenzæ B en association avec des anatoxines
 J07AG52 Hæmophilus influenzæ B en association avec d'autres vaccins
-J07AG53 Hæmophilus influenzæ B en association avec le méningocoque type C, conjugué
-J07AH Vaccins antiméningococciques
-J07AH01 Méningocoque type A, antigènes polysaccharidiques purifiés
+J07AG53 Hæmophilus influenzæ B en association avec le méningocoque type C, conjugué</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>J07A Vaccins bactériens</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>J07AH Vaccins antiméningococciques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>J07AH01 Méningocoque type A, antigènes polysaccharidiques purifiés
 J07AH02 Méningocoques, autres antigènes polysaccharidiques purifiés
 J07AH03 Méningocoques A et C, antigènes polysaccharidiques bivalents purifiés
 J07AH04 Méningocoques A, C, Y, W-135, antigènes polysaccharidiques tétravalents purifiés
@@ -543,142 +730,832 @@
 J07AH07 Méningocoque type C, antigènes polysaccharidiques purifiés
 J07AH08 Méningocoques A, C, Y, W-135, antigènes polysaccharidiques tétravalents purifiés conjugués
 J07AH09 Méningocoque type B, vaccin multi-composants
-J07AH10 Méningocoque A, antigènes polysaccharidiques purifiés conjugués
-J07AJ Vaccins contre la coqueluche
-J07AJ01 Coqueluche, bactérie entière inactivée
+J07AH10 Méningocoque A, antigènes polysaccharidiques purifiés conjugués</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>J07A Vaccins bactériens</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>J07AJ Vaccins contre la coqueluche</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>J07AJ01 Coqueluche, bactérie entière inactivée
 J07AJ02 Coqueluche, antigène purifié
 J07AJ51 Coqueluche, bactérie entière inactivée en association avec des anatoxines
-J07AJ52 Coqueluche, antigène purifié en association avec des anatoxines
-J07AK Vaccins contre la peste
-Article détaillé en anglais en:Plague vaccine (en)
-J07AK01 Peste, bactérie entière inactivée
-J07AL Vaccins antipneumococciques
-J07AL01 Pneumococcus, antigènes polysaccharidiques purifiés (en)
+J07AJ52 Coqueluche, antigène purifié en association avec des anatoxines</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>J07A Vaccins bactériens</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>J07AK Vaccins contre la peste</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Article détaillé en anglais en:Plague vaccine (en)
+J07AK01 Peste, bactérie entière inactivée</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>J07A Vaccins bactériens</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>J07AL Vaccins antipneumococciques</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>J07AL01 Pneumococcus, antigènes polysaccharidiques purifiés (en)
 J07AL02 Pneumococcus, antigènes polysaccharidiques purifiés conjugués (en)
-J07AL52 Pneumococcus, antigènes polysaccharidiques purifiés et Hæmophilus influenzae, conjugués
-J07AM Vaccins antitétaniques
-J07AM01 Anatoxine tétanique
+J07AL52 Pneumococcus, antigènes polysaccharidiques purifiés et Hæmophilus influenzae, conjugués</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>J07A Vaccins bactériens</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>J07AM Vaccins antitétaniques</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>J07AM01 Anatoxine tétanique
 J07AM51 Anatoxine tétanique en association avec anatoxine diphtérique
-J07AM52 Anatoxine tétanique en association avec immunoglobuline
-J07AN Vaccins antituberculeux
-J07AN01 Tuberculose, bactérie vivante atténuée
-J07AP Vaccins antityphoïdiques
-Article détaillé en anglais : en:Typhoid vaccine (en)
+J07AM52 Anatoxine tétanique en association avec immunoglobuline</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>J07A Vaccins bactériens</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>J07AN Vaccins antituberculeux</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>J07AN01 Tuberculose, bactérie vivante atténuée</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>J07A Vaccins bactériens</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>J07AP Vaccins antityphoïdiques</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Article détaillé en anglais : en:Typhoid vaccine (en)
 J07AP01 Typhoïde, bactérie vivante atténuée orale
 J07AP02 Typhoïde, bactérie entière inactivée
 J07AP03 Typhoïde, antigène polysaccharidique purifié
-J07AP10 Typhoïde, en association avec paratyphi
-J07AR Vaccins contre le typhus (exanthématique)
-J07AR01 Typhus exanthématique, bactérie entière inactivée
-J07AX Autres vaccins bactériens
-Section vide.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Classe_ATC_J07</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J07</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+J07AP10 Typhoïde, en association avec paratyphi</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>J07A Vaccins bactériens</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>J07AR Vaccins contre le typhus (exanthématique)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>J07AR01 Typhus exanthématique, bactérie entière inactivée</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>J07A Vaccins bactériens</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>J07AX Autres vaccins bactériens</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Section vide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>J07B Vaccins viraux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>J07BA Vaccins contre les encéphalites
-J07BA01 Encéphalite transmise par les tiques, virus entier inactivé
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>J07BA Vaccins contre les encéphalites</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>J07BA01 Encéphalite transmise par les tiques, virus entier inactivé
 J07BA02 Encéphalite japonaise, virus entier inactivé
-J07BA03 Encéphalite japonaise, virus vivant atténué
-J07BB Vaccins antigrippaux
-J07BB01 Grippe, virus entier inactivé
+J07BA03 Encéphalite japonaise, virus vivant atténué</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>J07B Vaccins viraux</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>J07BB Vaccins antigrippaux</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>J07BB01 Grippe, virus entier inactivé
 J07BB02 Grippe, antigène purifié
-J07BB03 Grippe, vivant atténué (en)
-J07BC Vaccins contre l'hépatite
-J07BC01 Hépatite B, antigène purifié
+J07BB03 Grippe, vivant atténué (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>J07B Vaccins viraux</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>J07BC Vaccins contre l'hépatite</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>J07BC01 Hépatite B, antigène purifié
 J07BC02 Hépatite A, virus entier inactivé
-J07BC20 Associations de vaccins contre l'hépatite
-J07BD Vaccins contre la rougeole
-J07BD01 Rougeole, virus vivant atténué
+J07BC20 Associations de vaccins contre l'hépatite</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>J07B Vaccins viraux</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>J07BD Vaccins contre la rougeole</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>J07BD01 Rougeole, virus vivant atténué
 J07BD51 Rougeole en association avec les oreillons, virus vivants atténués
 J07BD52 Rougeole en association avec les oreillons et la rubéole, virus vivants atténués
 J07BD53 Rougeole en association avec la rubéole, virus vivants atténués
-J07BD54 Rougeole en association avec les oreillons, la varicelle et la rubéole, virus vivants atténués (en)
-J07BE Vaccins contre les oreillons
-J07BE01 Oreillons, virus vivant atténué
-J07BF Vaccins contre la poliomyélite
-J07BF01 Poliomyélite, virus vivant monovalent atténué oral
+J07BD54 Rougeole en association avec les oreillons, la varicelle et la rubéole, virus vivants atténués (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>J07B Vaccins viraux</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>J07BE Vaccins contre les oreillons</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>J07BE01 Oreillons, virus vivant atténué</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>J07B Vaccins viraux</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>J07BF Vaccins contre la poliomyélite</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>J07BF01 Poliomyélite, virus vivant monovalent atténué oral
 J07BF02 Poliomyélite, virus vivant trivalent atténué oral
 J07BF03 Poliomyélite, virus entier trivalent inactivé
-J07BF04 Poliomyélite, virus vivant bivalent atténué oral
-J07BG Vaccins antirabiques
-J07BG01 Rage, virus entier inactivé
-J07BH Vaccins contre les diarrhées à rotavirus
-J07BH01 Rotavirus vivant atténué
-J07BH02 Rotavirus vivant pentavalent
-J07BJ Vaccins contre la rubéole
-J07BJ01 Rubéole, virus vivant atténué
-J07BJ51 Rubéole en association avec les oreillons, virus vivants atténués
-J07BK Vaccins contre varicelle-zona
-J07BK01 Varicelle, virus vivant atténué
+J07BF04 Poliomyélite, virus vivant bivalent atténué oral</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>J07B Vaccins viraux</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>J07BG Vaccins antirabiques</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>J07BG01 Rage, virus entier inactivé</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>J07B Vaccins viraux</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>J07BH Vaccins contre les diarrhées à rotavirus</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>J07BH01 Rotavirus vivant atténué
+J07BH02 Rotavirus vivant pentavalent</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>J07B Vaccins viraux</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>J07BJ Vaccins contre la rubéole</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>J07BJ01 Rubéole, virus vivant atténué
+J07BJ51 Rubéole en association avec les oreillons, virus vivants atténués</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>J07B Vaccins viraux</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>J07BK Vaccins contre varicelle-zona</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>J07BK01 Varicelle, virus vivant atténué
 J07BK02 Zona, virus vivant atténué
-J07BK03 Zona, antigène purifié
-J07BL Vaccins contre la fièvre jaune
-J07BL01 Vaccin contre la fièvre jaune
-J07BM Vaccin contre Papillomavirus
-J07BM01 Vaccin Papillomavirus (Humain types 6, 11, 16, 18)
+J07BK03 Zona, antigène purifié</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>J07B Vaccins viraux</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>J07BL Vaccins contre la fièvre jaune</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>J07BL01 Vaccin contre la fièvre jaune</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>J07B Vaccins viraux</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>J07BM Vaccin contre Papillomavirus</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>J07BM01 Vaccin Papillomavirus (Humain types 6, 11, 16, 18)
 J07BM02 Vaccin Papillomavirus (Humain types 6, 18)
-J07BM03 Papillomavirus (Humains types 6, 11, 16, 18, 31, 33, 45, 52, 58)
-J07BX Autres vaccins viraux
-J07BX01 Smallpox, vivant atténué
+J07BM03 Papillomavirus (Humains types 6, 11, 16, 18, 31, 33, 45, 52, 58)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>J07B Vaccins viraux</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>J07BX Autres vaccins viraux</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>J07BX01 Smallpox, vivant atténué
 J07BX02 Vaccin contre le virus Ebola
 J07BX03 Vaccin contre la Covid-19</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Classe_ATC_J07</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J07</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>J07C Vaccins bactériens et viraux associés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>J07CA Vaccins bactériens et viraux associés
-J07CA01 Diphtérie - poliomyélite - tétanos
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>J07CA Vaccins bactériens et viraux associés</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>J07CA01 Diphtérie - poliomyélite - tétanos
 J07CA02 Diphtérie - coqueluche - poliomyélite - tétanos
 J07CA03 Diphtérie - rubéole - tétanos
 J07CA04 Hæmophilus influenzæ B - poliomyélite
@@ -694,31 +1571,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Classe_ATC_J07</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J07</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>J07X Autres vaccins</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
         <is>
           <t>Classe vide.</t>
         </is>
